--- a/SEROFOI/summary_models/CRI-009-01_VPH16.xlsx
+++ b/SEROFOI/summary_models/CRI-009-01_VPH16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F371E7-673E-4074-870B-BEC617F6369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EBC879-5F7F-42FD-94CF-CF31615BF3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>Convergencia</t>
   </si>
   <si>
-    <t>Tasa de serorreversion</t>
-  </si>
-  <si>
-    <t>Tasa de serorreversión Rhat</t>
-  </si>
-  <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>Tasa de seroreversion</t>
+  </si>
+  <si>
+    <t>Tasa de seroreversión Rhat</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,10 +571,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -606,7 +606,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -621,7 +621,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -636,7 +636,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
